--- a/data/statistical/filled_NaN_xlsx/河南省_NaN_filled_polynomial.xlsx
+++ b/data/statistical/filled_NaN_xlsx/河南省_NaN_filled_polynomial.xlsx
@@ -600,7 +600,7 @@
         <v>32.2555</v>
       </c>
       <c r="E2">
-        <v>2076.924999058247</v>
+        <v>2076.924999669194</v>
       </c>
       <c r="F2">
         <v>4504.68</v>
@@ -609,85 +609,85 @@
         <v>6.03</v>
       </c>
       <c r="H2">
-        <v>35.93395753615187</v>
+        <v>35.93395753551158</v>
       </c>
       <c r="I2">
-        <v>3.226819538474107</v>
+        <v>3.417881848269072</v>
       </c>
       <c r="J2">
-        <v>225.0831792578101</v>
+        <v>225.0831792131066</v>
       </c>
       <c r="K2">
-        <v>36.2833460776601</v>
+        <v>36.28334607707802</v>
       </c>
       <c r="L2">
-        <v>1.574773718235519</v>
+        <v>1.574773718253709</v>
       </c>
       <c r="M2">
-        <v>184.5954254611861</v>
+        <v>184.5954254639801</v>
       </c>
       <c r="N2">
-        <v>158.1174019486643</v>
+        <v>158.1174019500613</v>
       </c>
       <c r="O2">
-        <v>30.21715685259551</v>
+        <v>30.21715685119852</v>
       </c>
       <c r="P2">
-        <v>459.1417174144189</v>
+        <v>479.2970769237105</v>
       </c>
       <c r="Q2">
-        <v>90.63639705994865</v>
+        <v>90.63639705977403</v>
       </c>
       <c r="R2">
-        <v>23.95547212148085</v>
+        <v>23.9554721233435</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>-102905.3098297119</v>
       </c>
       <c r="T2">
-        <v>73204.52940750122</v>
+        <v>73204.52944135666</v>
       </c>
       <c r="U2">
-        <v>0.8858901099192735</v>
+        <v>0.8858901099229115</v>
       </c>
       <c r="V2">
-        <v>26.09942208137363</v>
+        <v>26.09942208533175</v>
       </c>
       <c r="W2">
-        <v>50.16283516425756</v>
+        <v>50.16283516414114</v>
       </c>
       <c r="X2">
-        <v>20125.73039227724</v>
+        <v>20125.7303929925</v>
       </c>
       <c r="Y2">
-        <v>58.59562086447841</v>
+        <v>58.59562086837832</v>
       </c>
       <c r="Z2">
-        <v>199625.0450276872</v>
+        <v>154207.2476903535</v>
       </c>
       <c r="AA2">
-        <v>529.6451050173491</v>
+        <v>1489.930070307106</v>
       </c>
       <c r="AB2">
-        <v>301422.1279067993</v>
+        <v>-92233.16699886322</v>
       </c>
       <c r="AC2">
-        <v>456298.5329933167</v>
+        <v>738159.3700370789</v>
       </c>
       <c r="AD2">
-        <v>2244.555944681168</v>
+        <v>-19492.7465057075</v>
       </c>
       <c r="AE2">
-        <v>69983.07880854607</v>
+        <v>26573.61984814288</v>
       </c>
       <c r="AF2">
-        <v>3101.302771963179</v>
+        <v>49087.45133727789</v>
       </c>
       <c r="AG2">
-        <v>6204.934438884258</v>
+        <v>62111.77119848665</v>
       </c>
       <c r="AH2">
-        <v>71159.1414242123</v>
+        <v>-185324.4578866959</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -713,13 +713,13 @@
         <v>5.64</v>
       </c>
       <c r="H3">
-        <v>36.35059399079182</v>
+        <v>36.35059399023885</v>
       </c>
       <c r="I3">
         <v>3.1</v>
       </c>
       <c r="J3">
-        <v>160.3795676156878</v>
+        <v>160.3795675784349</v>
       </c>
       <c r="K3">
         <v>34.6549791050861</v>
@@ -743,13 +743,13 @@
         <v>94</v>
       </c>
       <c r="R3">
-        <v>19.35906861536205</v>
+        <v>19.35906861582771</v>
       </c>
       <c r="S3">
         <v>57505.8</v>
       </c>
       <c r="T3">
-        <v>86210.54411268234</v>
+        <v>86210.54414415359</v>
       </c>
       <c r="U3">
         <v>0.68</v>
@@ -764,34 +764,34 @@
         <v>17209</v>
       </c>
       <c r="Y3">
-        <v>62.58685987768695</v>
+        <v>62.58685988152865</v>
       </c>
       <c r="Z3">
-        <v>160168.84588353</v>
+        <v>279307.7097431434</v>
       </c>
       <c r="AA3">
-        <v>472.256993111223</v>
+        <v>1321.839161138982</v>
       </c>
       <c r="AB3">
-        <v>225976.3995628357</v>
+        <v>41415.41474819183</v>
       </c>
       <c r="AC3">
-        <v>370602.7039604187</v>
+        <v>757935.7615661621</v>
       </c>
       <c r="AD3">
-        <v>1596.828671813011</v>
+        <v>-17100.42832356691</v>
       </c>
       <c r="AE3">
-        <v>61306.76916623116</v>
+        <v>18935.42518487443</v>
       </c>
       <c r="AF3">
-        <v>3013.752002611756</v>
+        <v>45496.85441312194</v>
       </c>
       <c r="AG3">
-        <v>5043.103319942951</v>
+        <v>95367.48336306355</v>
       </c>
       <c r="AH3">
-        <v>60692.70450142879</v>
+        <v>-121041.7194442749</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -817,13 +817,13 @@
         <v>5.2</v>
       </c>
       <c r="H4">
-        <v>36.83934264880372</v>
+        <v>36.83934264830896</v>
       </c>
       <c r="I4">
         <v>3.4</v>
       </c>
       <c r="J4">
-        <v>110.0690386146307</v>
+        <v>110.0690385811031</v>
       </c>
       <c r="K4">
         <v>28.0577381488206</v>
@@ -847,7 +847,7 @@
         <v>96.28</v>
       </c>
       <c r="R4">
-        <v>15.37588234315626</v>
+        <v>15.3758823426906</v>
       </c>
       <c r="S4">
         <v>69593.39999999999</v>
@@ -868,34 +868,34 @@
         <v>19333</v>
       </c>
       <c r="Y4">
-        <v>66.32308515440673</v>
+        <v>66.32308515819022</v>
       </c>
       <c r="Z4">
         <v>273858</v>
       </c>
       <c r="AA4">
-        <v>420.9802698157728</v>
+        <v>1169.718281947076</v>
       </c>
       <c r="AB4">
-        <v>164703.3318099976</v>
+        <v>177635.4968013763</v>
       </c>
       <c r="AC4">
-        <v>298277.110042572</v>
+        <v>788516.9054450989</v>
       </c>
       <c r="AD4">
-        <v>1056.553946435452</v>
+        <v>-14724.19955204427</v>
       </c>
       <c r="AE4">
-        <v>53192.25379419327</v>
+        <v>61121.29654752877</v>
       </c>
       <c r="AF4">
-        <v>2917.400720983744</v>
+        <v>42021.20527464151</v>
       </c>
       <c r="AG4">
-        <v>4055.026696562767</v>
+        <v>52393.20752625958</v>
       </c>
       <c r="AH4">
-        <v>52020.40552049362</v>
+        <v>-60300.95322799683</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -927,7 +927,7 @@
         <v>3.5</v>
       </c>
       <c r="J5">
-        <v>74.1515922434628</v>
+        <v>74.15159221366048</v>
       </c>
       <c r="K5">
         <v>23.6745118262995</v>
@@ -972,34 +972,34 @@
         <v>18114</v>
       </c>
       <c r="Y5">
-        <v>69.80429669469595</v>
+        <v>69.80429669847945</v>
       </c>
       <c r="Z5">
         <v>186715</v>
       </c>
       <c r="AA5">
-        <v>375.8149351328611</v>
+        <v>1033.56743273139</v>
       </c>
       <c r="AB5">
-        <v>117602.9246482849</v>
+        <v>316427.0791578293</v>
       </c>
       <c r="AC5">
-        <v>239321.7512435913</v>
+        <v>829902.8016815186</v>
       </c>
       <c r="AD5">
-        <v>623.7317685186863</v>
+        <v>-12364.06019112468</v>
       </c>
       <c r="AE5">
-        <v>45639.53269219398</v>
+        <v>44526.68930928889</v>
       </c>
       <c r="AF5">
-        <v>2812.248927079141</v>
+        <v>38660.50392171741</v>
       </c>
       <c r="AG5">
-        <v>3240.704568564892</v>
+        <v>136992.4158910034</v>
       </c>
       <c r="AH5">
-        <v>68849.71734223297</v>
+        <v>-3102.159238815308</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -1076,34 +1076,34 @@
         <v>13548</v>
       </c>
       <c r="Y6">
-        <v>73.03049449855462</v>
+        <v>73.03049450216349</v>
       </c>
       <c r="Z6">
         <v>170612</v>
       </c>
       <c r="AA6">
-        <v>336.7609890662134</v>
+        <v>913.3866134956479</v>
       </c>
       <c r="AB6">
-        <v>84675.17808532715</v>
+        <v>457790.1618213654</v>
       </c>
       <c r="AC6">
-        <v>193736.6275634766</v>
+        <v>882093.4502754211</v>
       </c>
       <c r="AD6">
-        <v>298.3621380329132</v>
+        <v>-10020.01024082303</v>
       </c>
       <c r="AE6">
-        <v>38648.60585999489</v>
+        <v>40211.59692541962</v>
       </c>
       <c r="AF6">
-        <v>2698.296620897949</v>
+        <v>35414.75035437942</v>
       </c>
       <c r="AG6">
-        <v>2600.136936187744</v>
+        <v>135858.4948842581</v>
       </c>
       <c r="AH6">
-        <v>74764.90656898462</v>
+        <v>50554.66252326965</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1186,28 +1186,28 @@
         <v>50966</v>
       </c>
       <c r="AA7">
-        <v>303.8184316083789</v>
+        <v>809.1758242361248</v>
       </c>
       <c r="AB7">
-        <v>65920.09210586548</v>
+        <v>601724.7447872162</v>
       </c>
       <c r="AC7">
-        <v>161521.7390022278</v>
+        <v>945088.8512191772</v>
       </c>
       <c r="AD7">
-        <v>80.44505506753922</v>
+        <v>-7692.04970113188</v>
       </c>
       <c r="AE7">
-        <v>32219.47329831123</v>
+        <v>24153.75062244237</v>
       </c>
       <c r="AF7">
-        <v>2575.543802436441</v>
+        <v>32283.94457268715</v>
       </c>
       <c r="AG7">
-        <v>2133.323799371719</v>
+        <v>-7823.735721070767</v>
       </c>
       <c r="AH7">
-        <v>68111.72502551762</v>
+        <v>100669.5120592117</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -1290,28 +1290,28 @@
         <v>338139</v>
       </c>
       <c r="AA8">
-        <v>276.9872627649456</v>
+        <v>720.93506494537</v>
       </c>
       <c r="AB8">
-        <v>61337.6667175293</v>
+        <v>748230.8280601501</v>
       </c>
       <c r="AC8">
-        <v>142677.0855560303</v>
+        <v>1018889.004520416</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>-5380.178572073579</v>
       </c>
       <c r="AE8">
-        <v>26352.1350069046</v>
+        <v>49842.97994809367</v>
       </c>
       <c r="AF8">
-        <v>2443.990471705794</v>
+        <v>29268.08657667041</v>
       </c>
       <c r="AG8">
-        <v>1840.265158116817</v>
+        <v>169678.6388548318</v>
       </c>
       <c r="AH8">
-        <v>47674.54429887062</v>
+        <v>147242.3893709183</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -1394,28 +1394,28 @@
         <v>416131</v>
       </c>
       <c r="AA9">
-        <v>256.2674825377762</v>
+        <v>648.66433564201</v>
       </c>
       <c r="AB9">
-        <v>70927.9019241333</v>
+        <v>897308.4116363525</v>
       </c>
       <c r="AC9">
-        <v>137202.6672286987</v>
+        <v>1103493.910175323</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>-3084.396853610873</v>
       </c>
       <c r="AE9">
-        <v>21046.59098577499</v>
+        <v>11116.44825229132</v>
       </c>
       <c r="AF9">
-        <v>2303.636628698558</v>
+        <v>26367.17636618018</v>
       </c>
       <c r="AG9">
-        <v>1720.961012363434</v>
+        <v>144974.4677204458</v>
       </c>
       <c r="AH9">
-        <v>71422.33272541966</v>
+        <v>190273.2944536209</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -1498,28 +1498,28 @@
         <v>231700</v>
       </c>
       <c r="AA10">
-        <v>241.6590909194201</v>
+        <v>592.3636363148689</v>
       </c>
       <c r="AB10">
-        <v>94690.7977180481</v>
+        <v>1048957.495519638</v>
       </c>
       <c r="AC10">
-        <v>145098.4840087891</v>
+        <v>1198903.568191528</v>
       </c>
       <c r="AD10">
-        <v>71.40909084677696</v>
+        <v>-804.704545751214</v>
       </c>
       <c r="AE10">
-        <v>16302.84123492241</v>
+        <v>25956.01640812998</v>
       </c>
       <c r="AF10">
-        <v>2154.482273414731</v>
+        <v>23581.21394130588</v>
       </c>
       <c r="AG10">
-        <v>1775.411362171173</v>
+        <v>138350.2818809964</v>
       </c>
       <c r="AH10">
-        <v>74262.690186502</v>
+        <v>229762.227309227</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -1602,28 +1602,28 @@
         <v>237740</v>
       </c>
       <c r="AA11">
-        <v>190</v>
+        <v>362</v>
       </c>
       <c r="AB11">
-        <v>136405</v>
+        <v>989971</v>
       </c>
       <c r="AC11">
-        <v>168100</v>
+        <v>1095588</v>
       </c>
       <c r="AD11">
-        <v>589</v>
+        <v>2375</v>
       </c>
       <c r="AE11">
-        <v>20849</v>
+        <v>21246</v>
       </c>
       <c r="AF11">
-        <v>1936</v>
+        <v>19098</v>
       </c>
       <c r="AG11">
-        <v>2036</v>
+        <v>18898</v>
       </c>
       <c r="AH11">
-        <v>46128</v>
+        <v>182130</v>
       </c>
     </row>
     <row r="12" spans="1:34">
@@ -1706,28 +1706,28 @@
         <v>228292</v>
       </c>
       <c r="AA12">
-        <v>248</v>
+        <v>622</v>
       </c>
       <c r="AB12">
-        <v>160620</v>
+        <v>1345637</v>
       </c>
       <c r="AC12">
-        <v>196783</v>
+        <v>1427346</v>
       </c>
       <c r="AD12">
-        <v>716</v>
+        <v>3912</v>
       </c>
       <c r="AE12">
-        <v>1775</v>
+        <v>36599</v>
       </c>
       <c r="AF12">
-        <v>1184</v>
+        <v>19772</v>
       </c>
       <c r="AG12">
-        <v>1707</v>
+        <v>50412</v>
       </c>
       <c r="AH12">
-        <v>33678</v>
+        <v>299388</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -1810,28 +1810,28 @@
         <v>253914</v>
       </c>
       <c r="AA13">
-        <v>237</v>
+        <v>584</v>
       </c>
       <c r="AB13">
-        <v>249531</v>
+        <v>1562172</v>
       </c>
       <c r="AC13">
-        <v>246938</v>
+        <v>1636704</v>
       </c>
       <c r="AD13">
-        <v>950</v>
+        <v>4667</v>
       </c>
       <c r="AE13">
-        <v>471</v>
+        <v>42671</v>
       </c>
       <c r="AF13">
-        <v>1338</v>
+        <v>15545</v>
       </c>
       <c r="AG13">
-        <v>5095</v>
+        <v>62493</v>
       </c>
       <c r="AH13">
-        <v>55933</v>
+        <v>394211</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -1914,28 +1914,28 @@
         <v>260003</v>
       </c>
       <c r="AA14">
-        <v>238</v>
+        <v>582</v>
       </c>
       <c r="AB14">
-        <v>321730</v>
+        <v>1760079</v>
       </c>
       <c r="AC14">
-        <v>308587</v>
+        <v>1722243</v>
       </c>
       <c r="AD14">
-        <v>1306</v>
+        <v>6883</v>
       </c>
       <c r="AE14">
-        <v>1434</v>
+        <v>33668</v>
       </c>
       <c r="AF14">
-        <v>3417</v>
+        <v>19537</v>
       </c>
       <c r="AG14">
-        <v>4612</v>
+        <v>53790</v>
       </c>
       <c r="AH14">
-        <v>45405</v>
+        <v>373483</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -2018,28 +2018,28 @@
         <v>216820</v>
       </c>
       <c r="AA15">
-        <v>310</v>
+        <v>613</v>
       </c>
       <c r="AB15">
-        <v>439103</v>
+        <v>2076753</v>
       </c>
       <c r="AC15">
-        <v>405451</v>
+        <v>1951473</v>
       </c>
       <c r="AD15">
-        <v>1663</v>
+        <v>9569</v>
       </c>
       <c r="AE15">
-        <v>549</v>
+        <v>47192</v>
       </c>
       <c r="AF15">
-        <v>1239</v>
+        <v>7754</v>
       </c>
       <c r="AG15">
-        <v>2288</v>
+        <v>37258</v>
       </c>
       <c r="AH15">
-        <v>80192</v>
+        <v>438577</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -2122,28 +2122,28 @@
         <v>149002</v>
       </c>
       <c r="AA16">
-        <v>336</v>
+        <v>675</v>
       </c>
       <c r="AB16">
-        <v>575937</v>
+        <v>2224899</v>
       </c>
       <c r="AC16">
-        <v>444462</v>
+        <v>2220983</v>
       </c>
       <c r="AD16">
-        <v>2868</v>
+        <v>12298</v>
       </c>
       <c r="AE16">
-        <v>508</v>
+        <v>14782</v>
       </c>
       <c r="AF16">
-        <v>681</v>
+        <v>5643</v>
       </c>
       <c r="AG16">
-        <v>1886</v>
+        <v>46406</v>
       </c>
       <c r="AH16">
-        <v>64008</v>
+        <v>440998</v>
       </c>
     </row>
     <row r="17" spans="1:34">
@@ -2178,10 +2178,10 @@
         <v>953.8378</v>
       </c>
       <c r="K17">
-        <v>13.26332771824673</v>
+        <v>13.26332771906164</v>
       </c>
       <c r="L17">
-        <v>1.109114797221991</v>
+        <v>1.10911479720744</v>
       </c>
       <c r="M17">
         <v>3.13809470689067</v>
@@ -2226,28 +2226,28 @@
         <v>180929</v>
       </c>
       <c r="AA17">
-        <v>355</v>
+        <v>776</v>
       </c>
       <c r="AB17">
-        <v>758372.6</v>
+        <v>2506225.5</v>
       </c>
       <c r="AC17">
-        <v>610099.7</v>
+        <v>2626372.5</v>
       </c>
       <c r="AD17">
-        <v>3397</v>
+        <v>17553</v>
       </c>
       <c r="AE17">
-        <v>1348</v>
+        <v>11252</v>
       </c>
       <c r="AF17">
-        <v>863</v>
+        <v>5033</v>
       </c>
       <c r="AG17">
-        <v>10404</v>
+        <v>151030</v>
       </c>
       <c r="AH17">
-        <v>52248</v>
+        <v>409409</v>
       </c>
     </row>
     <row r="18" spans="1:34">
@@ -2282,10 +2282,10 @@
         <v>1091.2</v>
       </c>
       <c r="K18">
-        <v>14.64008533023298</v>
+        <v>14.64008533093147</v>
       </c>
       <c r="L18">
-        <v>1.158739286871423</v>
+        <v>1.158739286853233</v>
       </c>
       <c r="M18">
         <v>2.55269596673538</v>
@@ -2312,13 +2312,13 @@
         <v>48418</v>
       </c>
       <c r="U18">
-        <v>1.314461538473552</v>
+        <v>1.314461538499017</v>
       </c>
       <c r="V18">
         <v>97.3</v>
       </c>
       <c r="W18">
-        <v>109.1594065931567</v>
+        <v>109.159406591818</v>
       </c>
       <c r="X18">
         <v>17202</v>
@@ -2330,28 +2330,28 @@
         <v>173596</v>
       </c>
       <c r="AA18">
-        <v>283</v>
+        <v>591</v>
       </c>
       <c r="AB18">
-        <v>728272.7</v>
+        <v>2265528.3</v>
       </c>
       <c r="AC18">
-        <v>679531.9</v>
+        <v>2182509.2</v>
       </c>
       <c r="AD18">
-        <v>5160</v>
+        <v>19986</v>
       </c>
       <c r="AE18">
-        <v>10</v>
+        <v>14746.2</v>
       </c>
       <c r="AF18">
-        <v>112.8</v>
+        <v>13334.9</v>
       </c>
       <c r="AG18">
-        <v>8510.4</v>
+        <v>338913.8</v>
       </c>
       <c r="AH18">
-        <v>50506.3</v>
+        <v>406693</v>
       </c>
     </row>
     <row r="19" spans="1:34">
@@ -2368,7 +2368,7 @@
         <v>48.4877</v>
       </c>
       <c r="E19">
-        <v>19146.07500055432</v>
+        <v>19146.07499982417</v>
       </c>
       <c r="F19">
         <v>21971.5697</v>
@@ -2386,10 +2386,10 @@
         <v>1106.6</v>
       </c>
       <c r="K19">
-        <v>16.38077113009058</v>
+        <v>16.38077113090549</v>
       </c>
       <c r="L19">
-        <v>1.21844732873069</v>
+        <v>1.218447328716138</v>
       </c>
       <c r="M19">
         <v>1.92385807383817</v>
@@ -2416,13 +2416,13 @@
         <v>13493</v>
       </c>
       <c r="U19">
-        <v>1.462813186830317</v>
+        <v>1.462813186866697</v>
       </c>
       <c r="V19">
         <v>97.7</v>
       </c>
       <c r="W19">
-        <v>113.8988626369683</v>
+        <v>113.8988626352511</v>
       </c>
       <c r="X19">
         <v>21149</v>
@@ -2434,28 +2434,28 @@
         <v>196493</v>
       </c>
       <c r="AA19">
-        <v>330</v>
+        <v>592</v>
       </c>
       <c r="AB19">
-        <v>858613.1</v>
+        <v>1959128.6</v>
       </c>
       <c r="AC19">
-        <v>790643.6</v>
+        <v>2025148.5</v>
       </c>
       <c r="AD19">
-        <v>6469</v>
+        <v>18387</v>
       </c>
       <c r="AE19">
-        <v>1141.7</v>
+        <v>20273.4</v>
       </c>
       <c r="AF19">
-        <v>132.8</v>
+        <v>105</v>
       </c>
       <c r="AG19">
-        <v>11078.2</v>
+        <v>74450.10000000001</v>
       </c>
       <c r="AH19">
-        <v>58323.5</v>
+        <v>283320.2</v>
       </c>
     </row>
     <row r="20" spans="1:34">
@@ -2472,7 +2472,7 @@
         <v>49.1795</v>
       </c>
       <c r="E20">
-        <v>20609.31911823153</v>
+        <v>20609.31911739707</v>
       </c>
       <c r="F20">
         <v>20644.915</v>
@@ -2490,10 +2490,10 @@
         <v>1275.1019</v>
       </c>
       <c r="K20">
-        <v>18.48538511770312</v>
+        <v>18.48538511863444</v>
       </c>
       <c r="L20">
-        <v>1.28823892280343</v>
+        <v>1.288238922781602</v>
       </c>
       <c r="M20">
         <v>1.21377375194715</v>
@@ -2520,13 +2520,13 @@
         <v>13037</v>
       </c>
       <c r="U20">
-        <v>1.625466709778266</v>
+        <v>1.625466709832835</v>
       </c>
       <c r="V20">
         <v>98.3</v>
       </c>
       <c r="W20">
-        <v>118.7621034254262</v>
+        <v>118.7621034233598</v>
       </c>
       <c r="X20">
         <v>21578</v>
@@ -2538,28 +2538,28 @@
         <v>211209</v>
       </c>
       <c r="AA20">
-        <v>361</v>
+        <v>737</v>
       </c>
       <c r="AB20">
-        <v>1084962</v>
+        <v>2307305</v>
       </c>
       <c r="AC20">
-        <v>971927</v>
+        <v>2245843</v>
       </c>
       <c r="AD20">
-        <v>7842</v>
+        <v>17307</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>18090</v>
       </c>
       <c r="AF20">
-        <v>178.9105454161763</v>
+        <v>1110</v>
       </c>
       <c r="AG20">
-        <v>11353</v>
+        <v>49271</v>
       </c>
       <c r="AH20">
-        <v>44766</v>
+        <v>343223</v>
       </c>
     </row>
     <row r="21" spans="1:34">
@@ -2576,7 +2576,7 @@
         <v>49.7287</v>
       </c>
       <c r="E21">
-        <v>22123.58284375072</v>
+        <v>22123.58284281194</v>
       </c>
       <c r="F21">
         <v>23177.5</v>
@@ -2594,25 +2594,25 @@
         <v>1292.9837</v>
       </c>
       <c r="K21">
-        <v>20.95392729318701</v>
+        <v>20.95392729423475</v>
       </c>
       <c r="L21">
-        <v>1.368114069086005</v>
+        <v>1.368114069071453</v>
       </c>
       <c r="M21">
         <v>1.01818036801835</v>
       </c>
       <c r="N21">
-        <v>155.9526960863732</v>
+        <v>155.9526960840449</v>
       </c>
       <c r="O21">
-        <v>110.5740196104161</v>
+        <v>110.5740196076222</v>
       </c>
       <c r="P21">
         <v>589.8</v>
       </c>
       <c r="Q21">
-        <v>98.50561274489155</v>
+        <v>98.505612745299</v>
       </c>
       <c r="R21">
         <v>41.9</v>
@@ -2621,49 +2621,49 @@
         <v>1195920</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>-11162.75003480911</v>
       </c>
       <c r="U21">
-        <v>1.802422107335587</v>
+        <v>1.802422107393795</v>
       </c>
       <c r="V21">
         <v>99.2</v>
       </c>
       <c r="W21">
-        <v>123.7491289585305</v>
+        <v>123.7491289560276</v>
       </c>
       <c r="X21">
-        <v>26206.3774496913</v>
+        <v>26206.37744861841</v>
       </c>
       <c r="Y21">
-        <v>90.82181318796938</v>
+        <v>90.82181318220682</v>
       </c>
       <c r="Z21">
         <v>147507</v>
       </c>
       <c r="AA21">
-        <v>477</v>
+        <v>1031</v>
       </c>
       <c r="AB21">
-        <v>1326280</v>
+        <v>2718772</v>
       </c>
       <c r="AC21">
-        <v>1120901</v>
+        <v>2981907</v>
       </c>
       <c r="AD21">
-        <v>7941</v>
+        <v>22209</v>
       </c>
       <c r="AE21">
-        <v>2207</v>
+        <v>113156</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>1463</v>
       </c>
       <c r="AG21">
-        <v>15127</v>
+        <v>65501</v>
       </c>
       <c r="AH21">
-        <v>66631</v>
+        <v>453304</v>
       </c>
     </row>
     <row r="22" spans="1:34">
@@ -2680,7 +2680,7 @@
         <v>49.0051</v>
       </c>
       <c r="E22">
-        <v>23688.86617708206</v>
+        <v>23688.86617603898</v>
       </c>
       <c r="F22">
         <v>23539.3257</v>
@@ -2692,82 +2692,82 @@
         <v>57.07</v>
       </c>
       <c r="I22">
-        <v>3.366236652598272</v>
+        <v>3.075129275637337</v>
       </c>
       <c r="J22">
-        <v>1665.69664715603</v>
+        <v>1665.696647170931</v>
       </c>
       <c r="K22">
-        <v>23.78639765654225</v>
+        <v>23.78639765758999</v>
       </c>
       <c r="L22">
-        <v>1.458072767592967</v>
+        <v>1.458072767567501</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>-1.918528691632673</v>
       </c>
       <c r="N22">
-        <v>166.5901831868105</v>
+        <v>166.5901831840165</v>
       </c>
       <c r="O22">
-        <v>128.5773735833354</v>
+        <v>128.5773735796101</v>
       </c>
       <c r="P22">
-        <v>442.6424437495162</v>
+        <v>477.4266649667025</v>
       </c>
       <c r="Q22">
-        <v>97.74097652200726</v>
+        <v>97.74097652250202</v>
       </c>
       <c r="R22">
-        <v>48.53867646935396</v>
+        <v>48.53867647657171</v>
       </c>
       <c r="S22">
         <v>960663</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>-34988.01964664459</v>
       </c>
       <c r="U22">
-        <v>1.993679379480454</v>
+        <v>1.993679379553214</v>
       </c>
       <c r="V22">
-        <v>92.36363261938095</v>
+        <v>92.36363261425868</v>
       </c>
       <c r="W22">
-        <v>128.8599392362812</v>
+        <v>128.8599392333708</v>
       </c>
       <c r="X22">
-        <v>28653.49870854616</v>
+        <v>28653.49870717525</v>
       </c>
       <c r="Y22">
-        <v>89.96779120928841</v>
+        <v>89.96779120247811</v>
       </c>
       <c r="Z22">
-        <v>279145.1246670657</v>
+        <v>260067.0150978919</v>
       </c>
       <c r="AA22">
-        <v>620</v>
+        <v>1365</v>
       </c>
       <c r="AB22">
-        <v>1508817.5</v>
+        <v>3635674.2</v>
       </c>
       <c r="AC22">
-        <v>1280396.9</v>
+        <v>3645608.8</v>
       </c>
       <c r="AD22">
-        <v>9215</v>
+        <v>27157</v>
       </c>
       <c r="AE22">
-        <v>58</v>
+        <v>47409</v>
       </c>
       <c r="AF22">
-        <v>0.9</v>
+        <v>-884.4078789949417</v>
       </c>
       <c r="AG22">
-        <v>14702.1</v>
+        <v>123721.4</v>
       </c>
       <c r="AH22">
-        <v>108446.8</v>
+        <v>523269.4</v>
       </c>
     </row>
     <row r="23" spans="1:34">
@@ -2784,94 +2784,94 @@
         <v>53.4</v>
       </c>
       <c r="E23">
-        <v>25305.16911827028</v>
+        <v>25305.16911710799</v>
       </c>
       <c r="F23">
-        <v>25463.40758130141</v>
+        <v>25463.40758128278</v>
       </c>
       <c r="G23">
         <v>-0.9399999999999999</v>
       </c>
       <c r="H23">
-        <v>59.82688578456873</v>
+        <v>59.82688578494708</v>
       </c>
       <c r="I23">
-        <v>3.171658444913017</v>
+        <v>3.001481550836596</v>
       </c>
       <c r="J23">
-        <v>1888.854688223451</v>
+        <v>1888.854688242078</v>
       </c>
       <c r="K23">
-        <v>26.9827962074196</v>
+        <v>26.98279620858375</v>
       </c>
       <c r="L23">
-        <v>1.558115018309763</v>
+        <v>1.558115018284298</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>-1.413651874288917</v>
       </c>
       <c r="N23">
-        <v>178.3028121856041</v>
+        <v>178.3028121823445</v>
       </c>
       <c r="O23">
-        <v>147.9581320956349</v>
+        <v>147.9581320919096</v>
       </c>
       <c r="P23">
-        <v>458.8021256240174</v>
+        <v>637.6658682917289</v>
       </c>
       <c r="Q23">
-        <v>96.85845975225675</v>
+        <v>96.85845975278062</v>
       </c>
       <c r="R23">
-        <v>56.20661764452234</v>
+        <v>56.20661765313707</v>
       </c>
       <c r="S23">
-        <v>1153496.584884644</v>
+        <v>1153496.584939003</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>-60751.77790737152</v>
       </c>
       <c r="U23">
-        <v>2.199238526220142</v>
+        <v>2.199238526311092</v>
       </c>
       <c r="V23">
-        <v>89.19840661482885</v>
+        <v>89.19840660924092</v>
       </c>
       <c r="W23">
-        <v>134.0945342587365</v>
+        <v>134.0945342552732</v>
       </c>
       <c r="X23">
-        <v>31313.32868754864</v>
+        <v>31313.32868617773</v>
       </c>
       <c r="Y23">
-        <v>88.85875549417688</v>
+        <v>88.85875548626063</v>
       </c>
       <c r="Z23">
-        <v>181071.2863103452</v>
+        <v>237715.7994977922</v>
       </c>
       <c r="AA23">
-        <v>607.8863636814058</v>
+        <v>1313.727272998542</v>
       </c>
       <c r="AB23">
-        <v>1693320.556892395</v>
+        <v>3254402.113730431</v>
       </c>
       <c r="AC23">
-        <v>1464435.49786377</v>
+        <v>3422461.586566925</v>
       </c>
       <c r="AD23">
-        <v>11207.31818223</v>
+        <v>27367.15909048915</v>
       </c>
       <c r="AE23">
-        <v>5757.373059034348</v>
+        <v>66639.79066831536</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>-2176.04909080267</v>
       </c>
       <c r="AG23">
-        <v>18294.92500221729</v>
+        <v>136642.3540093088</v>
       </c>
       <c r="AH23">
-        <v>72509.47190733691</v>
+        <v>420798.881814003</v>
       </c>
     </row>
   </sheetData>
